--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3154.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3154.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.118454836306795</v>
+        <v>1.001461982727051</v>
       </c>
       <c r="B1">
-        <v>2.011083949654877</v>
+        <v>1.642426729202271</v>
       </c>
       <c r="C1">
-        <v>2.623546243386702</v>
+        <v>4.239952087402344</v>
       </c>
       <c r="D1">
-        <v>3.015656114547904</v>
+        <v>2.478299140930176</v>
       </c>
       <c r="E1">
-        <v>3.762856932537577</v>
+        <v>1.387456893920898</v>
       </c>
     </row>
   </sheetData>
